--- a/Risultati/DID_CIG_matrix.xlsx
+++ b/Risultati/DID_CIG_matrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marziodecorato/Documents/GitHub/Advanced_Microeconomics_Project/Risultati/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marzio\Documents\GitHub\Advanced_Microeconomics_Project\Risultati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9951D8D6-4ACA-4340-AC43-8F5D6C1397DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A580E8-CA30-4E6F-9037-041865AC3802}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="11740" xr2:uid="{D9CE23F2-D0EF-4158-85F1-E96BCA33BA34}"/>
+    <workbookView xWindow="16365" yWindow="705" windowWidth="27975" windowHeight="15600" xr2:uid="{D9CE23F2-D0EF-4158-85F1-E96BCA33BA34}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -445,16 +445,16 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -482,7 +482,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -496,7 +496,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -504,13 +504,13 @@
         <v>16.399999999999999</v>
       </c>
       <c r="C4" s="2">
-        <v>3.72</v>
+        <v>3.68</v>
       </c>
       <c r="D4" s="2">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
